--- a/Energía/16.xlsx
+++ b/Energía/16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4ab6b8efdf5476a/Escritorio/Incendios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Energía\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2354" documentId="8_{828E274A-2F87-4727-AAF3-1817C2CBD35C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{22EC7CFC-9DE4-4FBB-A7B1-35A9FB78916A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D6B598-6196-47D2-AFFF-AF768C84FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FF8A8BB-86F4-4F22-B031-4FEF95CB0749}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FF8A8BB-86F4-4F22-B031-4FEF95CB0749}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTAL!$A$1:$AF$782</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -14101,8 +14092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272AC014-CFD9-4DBE-90A2-38DA619D2D17}">
   <dimension ref="A1:AF782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="W767" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88351,7 +88342,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Energía/16.xlsx
+++ b/Energía/16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Energía\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Energía\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D6B598-6196-47D2-AFFF-AF768C84FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF6A69-11C1-46BA-ADE0-DD13D1786508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FF8A8BB-86F4-4F22-B031-4FEF95CB0749}"/>
   </bookViews>
@@ -14092,9 +14092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272AC014-CFD9-4DBE-90A2-38DA619D2D17}">
   <dimension ref="A1:AF782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W767" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D782"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Energía/16.xlsx
+++ b/Energía/16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Energía\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Energía\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF6A69-11C1-46BA-ADE0-DD13D1786508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04448DF-9901-428C-A591-4A55B9B02033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FF8A8BB-86F4-4F22-B031-4FEF95CB0749}"/>
   </bookViews>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTAL!$A$1:$AF$782</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -14092,7 +14101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272AC014-CFD9-4DBE-90A2-38DA619D2D17}">
   <dimension ref="A1:AF782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F778"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16976,7 +16987,7 @@
         <v>150401</v>
       </c>
       <c r="F31" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G31">
         <v>150401003</v>
@@ -17546,7 +17557,7 @@
         <v>150401</v>
       </c>
       <c r="F37" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G37">
         <v>150401003</v>
@@ -18116,7 +18127,7 @@
         <v>150401</v>
       </c>
       <c r="F43" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G43">
         <v>150401003</v>
@@ -19161,7 +19172,7 @@
         <v>150401</v>
       </c>
       <c r="F54" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G54">
         <v>150401003</v>
@@ -19351,7 +19362,7 @@
         <v>150401</v>
       </c>
       <c r="F56" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G56">
         <v>150401003</v>
@@ -19446,7 +19457,7 @@
         <v>150401</v>
       </c>
       <c r="F57" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G57">
         <v>150401003</v>
@@ -30392,7 +30403,7 @@
         <v>150401</v>
       </c>
       <c r="F172" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G172">
         <v>150401003</v>
@@ -30487,7 +30498,7 @@
         <v>150401</v>
       </c>
       <c r="F173" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G173">
         <v>150401003</v>
@@ -31054,7 +31065,7 @@
         <v>150401</v>
       </c>
       <c r="F179" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G179">
         <v>150401003</v>
@@ -32859,7 +32870,7 @@
         <v>150401</v>
       </c>
       <c r="F198" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G198">
         <v>150401003</v>
@@ -34091,7 +34102,7 @@
         <v>150401</v>
       </c>
       <c r="F211" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G211">
         <v>150401003</v>
@@ -34281,7 +34292,7 @@
         <v>150401</v>
       </c>
       <c r="F213" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G213">
         <v>150401003</v>
@@ -36843,7 +36854,7 @@
         <v>150401</v>
       </c>
       <c r="F240" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G240">
         <v>150401003</v>
@@ -36938,7 +36949,7 @@
         <v>150401</v>
       </c>
       <c r="F241" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G241">
         <v>150401003</v>
@@ -61430,7 +61441,7 @@
         <v>150401</v>
       </c>
       <c r="F499" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G499">
         <v>150401003</v>
@@ -75151,7 +75162,7 @@
         <v>150401</v>
       </c>
       <c r="F644" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G644">
         <v>150401003</v>
@@ -75246,7 +75257,7 @@
         <v>150401</v>
       </c>
       <c r="F645" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G645">
         <v>150401003</v>
@@ -75341,7 +75352,7 @@
         <v>150401</v>
       </c>
       <c r="F646" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G646">
         <v>150401003</v>
@@ -75437,7 +75448,7 @@
         <v>150401</v>
       </c>
       <c r="F647" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G647">
         <v>150401003</v>
@@ -75532,7 +75543,7 @@
         <v>150401</v>
       </c>
       <c r="F648" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G648">
         <v>150401003</v>
@@ -75627,7 +75638,7 @@
         <v>150401</v>
       </c>
       <c r="F649" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G649">
         <v>150401003</v>
@@ -75723,7 +75734,7 @@
         <v>150401</v>
       </c>
       <c r="F650" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G650">
         <v>150401003</v>
@@ -75818,7 +75829,7 @@
         <v>150401</v>
       </c>
       <c r="F651" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G651">
         <v>150401003</v>
@@ -75913,7 +75924,7 @@
         <v>150401</v>
       </c>
       <c r="F652" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G652">
         <v>150401003</v>
@@ -76198,7 +76209,7 @@
         <v>150401</v>
       </c>
       <c r="F655" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G655">
         <v>150401003</v>
@@ -78097,7 +78108,7 @@
       <c r="E675" s="2">
         <v>150402</v>
       </c>
-      <c r="F675" s="2" t="s">
+      <c r="F675" t="s">
         <v>4527</v>
       </c>
       <c r="G675" s="2">
@@ -78196,7 +78207,7 @@
         <v>150401</v>
       </c>
       <c r="F676" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G676">
         <v>150401003</v>
@@ -78291,7 +78302,7 @@
         <v>150401</v>
       </c>
       <c r="F677" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G677">
         <v>150401003</v>
@@ -78386,7 +78397,7 @@
         <v>150401</v>
       </c>
       <c r="F678" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G678">
         <v>150401003</v>
@@ -79526,7 +79537,7 @@
         <v>150401</v>
       </c>
       <c r="F690" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G690">
         <v>150401003</v>
@@ -79621,7 +79632,7 @@
         <v>150401</v>
       </c>
       <c r="F691" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G691">
         <v>150401003</v>
@@ -79716,7 +79727,7 @@
         <v>150401</v>
       </c>
       <c r="F692" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G692">
         <v>150401003</v>
@@ -79811,7 +79822,7 @@
         <v>150401</v>
       </c>
       <c r="F693" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G693">
         <v>150401003</v>
@@ -79906,7 +79917,7 @@
         <v>150401</v>
       </c>
       <c r="F694" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G694">
         <v>150401003</v>
@@ -80001,7 +80012,7 @@
         <v>150401</v>
       </c>
       <c r="F695" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G695">
         <v>150401003</v>
@@ -80096,7 +80107,7 @@
         <v>150401</v>
       </c>
       <c r="F696" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G696">
         <v>150401003</v>
@@ -80191,7 +80202,7 @@
         <v>150401</v>
       </c>
       <c r="F697" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G697">
         <v>150401003</v>
@@ -80381,7 +80392,7 @@
         <v>150401</v>
       </c>
       <c r="F699" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G699">
         <v>150401003</v>
@@ -80571,7 +80582,7 @@
         <v>150401</v>
       </c>
       <c r="F701" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G701">
         <v>150401003</v>
@@ -80666,7 +80677,7 @@
         <v>150401</v>
       </c>
       <c r="F702" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G702">
         <v>150401003</v>
@@ -80761,7 +80772,7 @@
         <v>150401</v>
       </c>
       <c r="F703" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G703">
         <v>150401003</v>
@@ -80856,7 +80867,7 @@
         <v>150401</v>
       </c>
       <c r="F704" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G704">
         <v>150401003</v>
@@ -81046,7 +81057,7 @@
         <v>150401</v>
       </c>
       <c r="F706" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G706">
         <v>150401003</v>
@@ -81806,7 +81817,7 @@
         <v>150401</v>
       </c>
       <c r="F714" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G714">
         <v>150401003</v>
@@ -83231,7 +83242,7 @@
         <v>150401</v>
       </c>
       <c r="F729" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G729">
         <v>150401003</v>
@@ -84371,7 +84382,7 @@
         <v>150401</v>
       </c>
       <c r="F741" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G741">
         <v>150401003</v>
@@ -84466,7 +84477,7 @@
         <v>150401</v>
       </c>
       <c r="F742" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="G742">
         <v>150401003</v>
